--- a/output/fit_clients/fit_round_110.xlsx
+++ b/output/fit_clients/fit_round_110.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1816807743.90364</v>
+        <v>1790694660.297275</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07719401220219825</v>
+        <v>0.09071775420340507</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03106571969032315</v>
+        <v>0.03838613487758399</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>908403842.9043465</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1974232454.024507</v>
+        <v>2485280298.227563</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1688636813897805</v>
+        <v>0.1131082301765058</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03137660649243168</v>
+        <v>0.04977454216678986</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>987116263.0201944</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4641713057.793024</v>
+        <v>3564539159.666544</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1541318142382337</v>
+        <v>0.1431851241662545</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03809805355593326</v>
+        <v>0.034097659784909</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>40</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2320856588.473157</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3695122933.913716</v>
+        <v>3014727200.133514</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1065695816281348</v>
+        <v>0.0961060177766152</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03566725420448053</v>
+        <v>0.04654521897351505</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1847561490.736753</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2602472805.820849</v>
+        <v>2448001734.127227</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1068263511745328</v>
+        <v>0.09838497751674261</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03726176794282561</v>
+        <v>0.05271069608615579</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1301236367.247058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3038484034.195467</v>
+        <v>2446779911.963706</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09138346919422918</v>
+        <v>0.07443084871146199</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03554668018865611</v>
+        <v>0.04340798199188282</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>35</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1519241978.237421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2976373766.788268</v>
+        <v>3375325620.014964</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1858334728468456</v>
+        <v>0.1852217225073142</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02805865686191362</v>
+        <v>0.03281161908077951</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>35</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1488186938.429968</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1791336933.944271</v>
+        <v>1738802166.760913</v>
       </c>
       <c r="F9" t="n">
-        <v>0.193876004697059</v>
+        <v>0.1620700069282777</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02744285201199719</v>
+        <v>0.02307803896285122</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>895668522.4637274</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5545748952.561443</v>
+        <v>3737908640.915052</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1979688381998252</v>
+        <v>0.1529496774998624</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04671510229031946</v>
+        <v>0.03929766858875536</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>47</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2772874617.792823</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4191726073.447191</v>
+        <v>3394586797.722383</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1493791222007076</v>
+        <v>0.1336875704262495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03241046745788336</v>
+        <v>0.04076243081069456</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>46</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2095863062.697035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2276830425.408495</v>
+        <v>3255358503.060758</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1853922390142859</v>
+        <v>0.1330653011282684</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04993590114916063</v>
+        <v>0.04344279287456142</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>39</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1138415164.452394</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3629878520.375478</v>
+        <v>4005472480.799404</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06137162896396476</v>
+        <v>0.08378178562739043</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02792554379949903</v>
+        <v>0.02361071008574419</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>37</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1814939333.864401</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2636549239.199879</v>
+        <v>2697158982.022101</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1623719573694728</v>
+        <v>0.120669495130149</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02800394068539444</v>
+        <v>0.04064469152249502</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>35</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1318274680.271512</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1517363758.704799</v>
+        <v>1183792790.972008</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1047112554898324</v>
+        <v>0.07417846905241919</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04046046375373502</v>
+        <v>0.04875714456093388</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>758681968.7285947</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1861423970.214812</v>
+        <v>1993413810.268315</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09670164748331746</v>
+        <v>0.07163895833574373</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04593581529652587</v>
+        <v>0.04742094741112816</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>930712072.9214629</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4548826721.525213</v>
+        <v>4416310922.282996</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1093887326858281</v>
+        <v>0.1079027634426937</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04689952876590484</v>
+        <v>0.05182097255395496</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>32</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2274413368.165949</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3586233501.675752</v>
+        <v>3738995019.078666</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1800487327405906</v>
+        <v>0.1352418865961237</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02652161042074876</v>
+        <v>0.03231301293703213</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>36</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1793116738.561056</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>898269421.1409016</v>
+        <v>1000574959.84457</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1178713768031435</v>
+        <v>0.1390212317419407</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01665954151082352</v>
+        <v>0.0239129521660834</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>449134714.9695941</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2631290916.215327</v>
+        <v>2643409796.432226</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09784511613631032</v>
+        <v>0.135966535469536</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02457430715060836</v>
+        <v>0.02429183443202632</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>14</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1315645417.153124</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2487413637.576168</v>
+        <v>2589988157.816152</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07521902435984895</v>
+        <v>0.09802001903983357</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03866967790112476</v>
+        <v>0.03662064113688954</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>10</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1243706808.033703</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3681343502.61587</v>
+        <v>2691335010.760393</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1172812738903425</v>
+        <v>0.1147174561181606</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03701730390035537</v>
+        <v>0.04659602566880427</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>30</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1840671771.976609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1525630544.409811</v>
+        <v>959290630.7550186</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1686096320976663</v>
+        <v>0.1148792014525491</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0491539498885941</v>
+        <v>0.04019003398650958</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>762815253.7735376</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4093576916.302062</v>
+        <v>2802620780.565958</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09244957962657545</v>
+        <v>0.1101121657779226</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02872439212926781</v>
+        <v>0.02482452441765468</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>32</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2046788419.789767</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1130683266.76514</v>
+        <v>1298886689.218485</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1152520175045595</v>
+        <v>0.07508344759087571</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02783494305443069</v>
+        <v>0.02589173107401094</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>565341667.2406025</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>898424136.754119</v>
+        <v>997790564.4567822</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1062394771476486</v>
+        <v>0.09663885705815448</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03084628486362055</v>
+        <v>0.02650049221773887</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>449212015.5306892</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4707908848.363046</v>
+        <v>4526679700.168005</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1527015211633559</v>
+        <v>0.1116458157212441</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02467606024587042</v>
+        <v>0.02042395215164605</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>26</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2353954399.137587</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2680235654.794217</v>
+        <v>3243655483.074595</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1132768501578513</v>
+        <v>0.1335985267050011</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04326674011679873</v>
+        <v>0.03827498924556282</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>35</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1340117810.79721</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3807346662.093356</v>
+        <v>5605822540.415437</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1487354446399122</v>
+        <v>0.09854149941856555</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04420206293389419</v>
+        <v>0.03790553716844253</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>51</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1903673361.172665</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1978693256.682866</v>
+        <v>2246670707.074206</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1165521505371893</v>
+        <v>0.1184442593888349</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0291549663564329</v>
+        <v>0.03951429367639383</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>989346663.3007274</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>966294436.6437378</v>
+        <v>1344793848.841959</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1042459219891654</v>
+        <v>0.10247633213032</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03736280196689239</v>
+        <v>0.03239179550851008</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>483147224.7353222</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1145165231.297454</v>
+        <v>1255915621.022887</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1113422926142004</v>
+        <v>0.1088445020918256</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0309046003370764</v>
+        <v>0.03375008208762681</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>572582610.4599969</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2911523905.183176</v>
+        <v>2793789334.473369</v>
       </c>
       <c r="F33" t="n">
-        <v>0.173334414269158</v>
+        <v>0.1566159551684082</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05871470025188563</v>
+        <v>0.0434034412098759</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>31</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1455761955.682186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1175352624.267419</v>
+        <v>952422446.6516497</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1100679142159774</v>
+        <v>0.07525696941898115</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01736385219713758</v>
+        <v>0.01981376957060365</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>587676321.2076447</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1330414471.124929</v>
+        <v>1021427588.273741</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1009174924160324</v>
+        <v>0.08613961402796286</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03359671285288876</v>
+        <v>0.04429607490061772</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>665207181.619218</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2863184418.230375</v>
+        <v>2448326764.881544</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1160661531039855</v>
+        <v>0.1747727906157159</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0221137132261879</v>
+        <v>0.01901568820485302</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>29</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1431592201.933564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2003912217.201468</v>
+        <v>2338582038.888113</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1076709164912001</v>
+        <v>0.1059327881124799</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02819124498749266</v>
+        <v>0.04071382401236638</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>29</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1001956136.358367</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1399982660.74863</v>
+        <v>2126945755.594734</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0922376234161765</v>
+        <v>0.07822659652284483</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02482930131684968</v>
+        <v>0.02638164889390199</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>699991393.7020251</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2160424825.761453</v>
+        <v>1443606824.311511</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1423552019235968</v>
+        <v>0.1630348415401029</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03239861615824292</v>
+        <v>0.02954112186251619</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1080212383.019164</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1820591799.211195</v>
+        <v>1322708863.870671</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1195797279209105</v>
+        <v>0.117361155392002</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05323795075055809</v>
+        <v>0.05930394237458732</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>910295785.4541748</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2407434415.650018</v>
+        <v>2559342342.266441</v>
       </c>
       <c r="F41" t="n">
-        <v>0.140504307147806</v>
+        <v>0.1563915806154191</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03466794321065349</v>
+        <v>0.03900456232909179</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>27</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1203717242.104185</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3939159173.640885</v>
+        <v>3132242547.095731</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08315847428125757</v>
+        <v>0.1236292029017234</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04273456344518252</v>
+        <v>0.03061656518193254</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>39</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1969579611.86293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2814769811.051531</v>
+        <v>2372599965.296969</v>
       </c>
       <c r="F43" t="n">
-        <v>0.135093513556293</v>
+        <v>0.1562685147122432</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02517507777889733</v>
+        <v>0.01674947044986706</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>35</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1407384922.457563</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1754253775.243896</v>
+        <v>2174614573.280821</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07334486068683323</v>
+        <v>0.06465510370240463</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03302276720136853</v>
+        <v>0.03223849500103985</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>877126944.8636152</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1660891892.209813</v>
+        <v>2282488725.346757</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1836641128260715</v>
+        <v>0.1703650172748146</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04064151634641117</v>
+        <v>0.04572660552341579</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>830445902.7465085</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4789124941.338031</v>
+        <v>4472837462.974014</v>
       </c>
       <c r="F46" t="n">
-        <v>0.108724933100716</v>
+        <v>0.1748486730109112</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05237764171224567</v>
+        <v>0.06026492088161183</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>39</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2394562485.330407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3892927544.251666</v>
+        <v>4463456820.307385</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1874132453507238</v>
+        <v>0.1584183773484129</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05447390016056772</v>
+        <v>0.03730585336509797</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>30</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1946463765.141092</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3609664253.690086</v>
+        <v>3858377406.099701</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09732381406398473</v>
+        <v>0.09799256288842838</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02518892886824267</v>
+        <v>0.03160779898202257</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>37</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1804832183.859346</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1873903882.476033</v>
+        <v>1554368094.815188</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1303744341386982</v>
+        <v>0.1916751825693013</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03593368829665403</v>
+        <v>0.03017671783630436</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>936951915.0609434</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3500426642.668372</v>
+        <v>4029083258.42034</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1603562139008467</v>
+        <v>0.1601273915513462</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03673703779218561</v>
+        <v>0.03468926780224861</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>38</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1750213345.515595</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>947014166.5340589</v>
+        <v>965128577.3396486</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1236066972914287</v>
+        <v>0.1342803767542035</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03376750468906708</v>
+        <v>0.04950026818007704</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>473507175.7303513</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4708941351.769256</v>
+        <v>3195675098.261944</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0878216638915371</v>
+        <v>0.1159231791281569</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0423321701883832</v>
+        <v>0.05048952904193708</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>46</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2354470690.578578</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2357355043.519069</v>
+        <v>3022265118.102422</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1659137968293259</v>
+        <v>0.1950782691468329</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0307702686898455</v>
+        <v>0.03070458588999941</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>31</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1178677598.509849</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4831714370.00397</v>
+        <v>3910539936.151752</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1600630471261915</v>
+        <v>0.133411974938394</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05056284367662094</v>
+        <v>0.05244385816397283</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>37</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2415857314.287404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3285167725.288964</v>
+        <v>3006919032.163357</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1640936011863647</v>
+        <v>0.201745549756792</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02589521387226305</v>
+        <v>0.03219938232541492</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>31</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1642583805.9269</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1413420287.059523</v>
+        <v>1535217865.251997</v>
       </c>
       <c r="F56" t="n">
-        <v>0.130828129056638</v>
+        <v>0.1185548808142401</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04344466575339192</v>
+        <v>0.05356356523129156</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>706710198.5753074</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4082012333.188541</v>
+        <v>3112470306.945561</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1844515141693354</v>
+        <v>0.1406778440276641</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02167769184098852</v>
+        <v>0.01843344788828746</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>35</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2041006261.777276</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1204703008.810565</v>
+        <v>1722219082.233495</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1840513105191232</v>
+        <v>0.1466483859559819</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02883187862404733</v>
+        <v>0.02467881236044791</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>602351562.4161267</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5149281343.659878</v>
+        <v>3751287459.178321</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09764152285656849</v>
+        <v>0.1004777674214859</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03856101414498758</v>
+        <v>0.04175874416178441</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>30</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2574640592.293264</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3248921907.283034</v>
+        <v>2650532586.203817</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1604248625664439</v>
+        <v>0.2009704132726537</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0298977742221625</v>
+        <v>0.02085896898302741</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>34</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1624461050.032512</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3217340541.872821</v>
+        <v>2754442949.321368</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1525005329049988</v>
+        <v>0.1523608075752301</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02262026425427599</v>
+        <v>0.02268986253735134</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>38</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1608670230.853932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1468554730.245313</v>
+        <v>1594493612.227447</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1817323240158205</v>
+        <v>0.1303959049194625</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03619533684571018</v>
+        <v>0.03493766654699958</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>734277343.3642412</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3708298758.37091</v>
+        <v>3978216567.780621</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06779520394771109</v>
+        <v>0.09507777498418479</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03556928568357271</v>
+        <v>0.04142144783003071</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>32</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1854149454.522487</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5079556161.666504</v>
+        <v>3605593620.456067</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1686961748862545</v>
+        <v>0.1253503396731438</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02798515652461878</v>
+        <v>0.03345673164942038</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>34</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2539778192.55679</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4370080987.444955</v>
+        <v>5891718823.691304</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1254390993011876</v>
+        <v>0.1525562064729664</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02380297943247232</v>
+        <v>0.02966822917391582</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>40</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2185040490.161441</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5561022161.142462</v>
+        <v>5536634820.976357</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1583302244834371</v>
+        <v>0.1517729991104506</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04994364333092809</v>
+        <v>0.04430035656878494</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>32</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2780511137.712015</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2866162317.131593</v>
+        <v>2838714692.947077</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08280199677808496</v>
+        <v>0.0831782548732614</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03752315337272389</v>
+        <v>0.05029584598143529</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>35</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1433081188.131748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3948387706.778755</v>
+        <v>3948755526.75664</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1574135556072756</v>
+        <v>0.1340755056278112</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03455935165076941</v>
+        <v>0.04821800936057493</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>35</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1974193845.997813</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1837831811.955458</v>
+        <v>2129456233.473716</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1362030584435464</v>
+        <v>0.171791834949426</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0596060360599214</v>
+        <v>0.05032135455732918</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>918915889.9053869</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2684170926.360748</v>
+        <v>2311068354.847489</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06259961513796515</v>
+        <v>0.09472602687820109</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03418025696242558</v>
+        <v>0.04251492957607087</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>31</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1342085419.615925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5157964435.10086</v>
+        <v>4778256316.858907</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1308437717767136</v>
+        <v>0.1198440156552931</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02643023777861509</v>
+        <v>0.02574352838180125</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>40</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2578982334.984097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2267609751.759639</v>
+        <v>1965017248.910377</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1026209423214903</v>
+        <v>0.08076147734175244</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05254590823773362</v>
+        <v>0.03564928967821843</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1133804779.014898</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3359591983.481081</v>
+        <v>2558947728.428545</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08794646448139731</v>
+        <v>0.08334140740179542</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03786314606155236</v>
+        <v>0.04200119654122264</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>42</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1679795954.752905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2442710748.620795</v>
+        <v>3299071533.698358</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1346700219198083</v>
+        <v>0.1682875092723336</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02397629040843881</v>
+        <v>0.02581469404764127</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>38</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1221355487.832693</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1830704029.391231</v>
+        <v>2473571193.829055</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1164666131979219</v>
+        <v>0.1327636341663052</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02644638408766016</v>
+        <v>0.02418358831080481</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>915351994.652073</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4078637342.123275</v>
+        <v>5302113362.494047</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1122190140271343</v>
+        <v>0.1023965549436596</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03324655544051912</v>
+        <v>0.02552515667176144</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>25</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2039318659.027791</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1498142119.273772</v>
+        <v>1866257047.164123</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1123894432454897</v>
+        <v>0.1761074492000764</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02481129974404956</v>
+        <v>0.02469703625123118</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>749071047.0210072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3500445972.936325</v>
+        <v>3558916327.956697</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09379084371469229</v>
+        <v>0.1074715722780517</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05132683694501283</v>
+        <v>0.03450274620093332</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>38</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1750222987.900352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1645751507.781767</v>
+        <v>1459998150.112519</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1068835546654454</v>
+        <v>0.1727200150478049</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04031250310461672</v>
+        <v>0.0298696991963458</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>822875813.5428302</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5589264170.00863</v>
+        <v>5205582604.343461</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09944989518049525</v>
+        <v>0.1004656757163783</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02506376938425547</v>
+        <v>0.03115103401865818</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>23</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2794632163.42908</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3736024457.094719</v>
+        <v>4872090056.755557</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1045711756148553</v>
+        <v>0.1198018699799455</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02751905989109671</v>
+        <v>0.02085294880806966</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>24</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1868012181.883863</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5067237232.966247</v>
+        <v>4142001533.324</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1992563391600437</v>
+        <v>0.1907277810812488</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02958776181067151</v>
+        <v>0.02704932037563058</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>39</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2533618596.615751</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1874675106.47999</v>
+        <v>2137374773.162281</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1083429266709404</v>
+        <v>0.1475301577547078</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03068344847937147</v>
+        <v>0.04478613959701631</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>937337522.9257183</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2517785910.358084</v>
+        <v>1793758872.578198</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09299570475050464</v>
+        <v>0.09226210670488756</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04905447195778797</v>
+        <v>0.03968219913745356</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
         <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1258892884.314358</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3037920532.335124</v>
+        <v>3475253562.549131</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1617330174033281</v>
+        <v>0.1544254314355225</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04166186720195177</v>
+        <v>0.05080825166633354</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>40</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1518960330.433713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2315842337.799011</v>
+        <v>1936577635.89155</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1695623424765476</v>
+        <v>0.1227498881464333</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02498068312886579</v>
+        <v>0.02256075189823051</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1157921240.392875</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1419283444.587805</v>
+        <v>1348096717.261369</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1841440285661511</v>
+        <v>0.1163497011833766</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04157977268173616</v>
+        <v>0.03285703249815987</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>709641834.0188584</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3450367011.876835</v>
+        <v>3098125293.139245</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1093328721317901</v>
+        <v>0.1372116950129231</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02620208916559832</v>
+        <v>0.03769811223886725</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>43</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1725183580.816548</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3254539458.181382</v>
+        <v>3145782378.766085</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1276886773111773</v>
+        <v>0.1352757522731849</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02921824486205983</v>
+        <v>0.02551260593738409</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>38</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1627269748.487913</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1588808245.075964</v>
+        <v>1425662977.150751</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1378538831112925</v>
+        <v>0.1137187241182343</v>
       </c>
       <c r="G90" t="n">
-        <v>0.036445022503487</v>
+        <v>0.04976606337370972</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>794404117.4374565</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1760107389.539215</v>
+        <v>1757545297.402623</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1946409264454601</v>
+        <v>0.1770078852691219</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05040387746646421</v>
+        <v>0.0391597763381883</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>880053698.953359</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2123511068.971028</v>
+        <v>2855566279.479748</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07560210715784202</v>
+        <v>0.1074594776475309</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03497543654512959</v>
+        <v>0.0360584405927413</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>25</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1061755489.937702</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3428610136.53705</v>
+        <v>3907707059.457672</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1172641626234753</v>
+        <v>0.1362647247712606</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04749708315255852</v>
+        <v>0.05316739797783967</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>33</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1714305105.792449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1909412192.222137</v>
+        <v>2356129090.645143</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1522113979698562</v>
+        <v>0.1590533304842913</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03468987640514153</v>
+        <v>0.02991231813274237</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>954706082.5823117</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2131974180.299407</v>
+        <v>2363497538.790543</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1044408793151034</v>
+        <v>0.09280907519300176</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04865618027868601</v>
+        <v>0.03851861871811049</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>26</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1065987152.94256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1473540618.427698</v>
+        <v>1856929668.52988</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08628320645141903</v>
+        <v>0.1093590495470853</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03335797042150369</v>
+        <v>0.04339524101339588</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>736770352.3408251</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5082729663.636133</v>
+        <v>4514596735.702298</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1249565167726194</v>
+        <v>0.1189468491445041</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02539003639140452</v>
+        <v>0.02547936375164503</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>35</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2541364975.20226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3927915689.041334</v>
+        <v>3209515319.27516</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08569297303512485</v>
+        <v>0.1101522162235084</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02505378574147534</v>
+        <v>0.02352596104266417</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>29</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1963957892.063038</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3441480697.233589</v>
+        <v>2102335369.147254</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1373851013980874</v>
+        <v>0.1301634379251376</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03248793296605128</v>
+        <v>0.02802857874683816</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>35</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1720740366.490954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4783431062.038396</v>
+        <v>4774351686.820381</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1343996701861661</v>
+        <v>0.1434467163101316</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01808348422333723</v>
+        <v>0.02276603240678085</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>34</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2391715664.162439</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2438255308.144931</v>
+        <v>2670987833.703914</v>
       </c>
       <c r="F101" t="n">
-        <v>0.171887901247468</v>
+        <v>0.1660741981460404</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04901907416962115</v>
+        <v>0.03936539496408802</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>46</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1219127668.868049</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_110.xlsx
+++ b/output/fit_clients/fit_round_110.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1790694660.297275</v>
+        <v>2056424659.932771</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09071775420340507</v>
+        <v>0.08771887225226083</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03838613487758399</v>
+        <v>0.03347540748445665</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2485280298.227563</v>
+        <v>2611690565.715046</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1131082301765058</v>
+        <v>0.1308804130729423</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04977454216678986</v>
+        <v>0.0497528516766849</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3564539159.666544</v>
+        <v>3615699117.84389</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1431851241662545</v>
+        <v>0.1353015228284888</v>
       </c>
       <c r="G4" t="n">
-        <v>0.034097659784909</v>
+        <v>0.03325221748870718</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3014727200.133514</v>
+        <v>3411688341.946126</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0961060177766152</v>
+        <v>0.0854068601373292</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04654521897351505</v>
+        <v>0.04247465150246427</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2448001734.127227</v>
+        <v>2189334405.302006</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09838497751674261</v>
+        <v>0.1474057968798251</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05271069608615579</v>
+        <v>0.05603080021771761</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2446779911.963706</v>
+        <v>2697363577.373147</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07443084871146199</v>
+        <v>0.08059087011729277</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04340798199188282</v>
+        <v>0.03599628171692643</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3375325620.014964</v>
+        <v>3111302123.878457</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1852217225073142</v>
+        <v>0.1873382576906919</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03281161908077951</v>
+        <v>0.02169217323237708</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1738802166.760913</v>
+        <v>1878156244.095166</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1620700069282777</v>
+        <v>0.18475553979398</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02307803896285122</v>
+        <v>0.03674343135519018</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3737908640.915052</v>
+        <v>3616534061.410649</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1529496774998624</v>
+        <v>0.1870740256457559</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03929766858875536</v>
+        <v>0.05276359430263374</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3394586797.722383</v>
+        <v>3021108743.086771</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1336875704262495</v>
+        <v>0.137171514685962</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04076243081069456</v>
+        <v>0.03874508765940018</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3255358503.060758</v>
+        <v>2112506029.648694</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1330653011282684</v>
+        <v>0.1542957478437976</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04344279287456142</v>
+        <v>0.03738722411948624</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4005472480.799404</v>
+        <v>5077619972.553346</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08378178562739043</v>
+        <v>0.07846649410059853</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02361071008574419</v>
+        <v>0.02305427170487753</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2697158982.022101</v>
+        <v>3421945065.260252</v>
       </c>
       <c r="F14" t="n">
-        <v>0.120669495130149</v>
+        <v>0.1677749880683498</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04064469152249502</v>
+        <v>0.04307743467606748</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1183792790.972008</v>
+        <v>1261779772.276219</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07417846905241919</v>
+        <v>0.1039699262775489</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04875714456093388</v>
+        <v>0.03572031400268298</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1993413810.268315</v>
+        <v>2859039096.595564</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07163895833574373</v>
+        <v>0.0805809832817848</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04742094741112816</v>
+        <v>0.05177755061048198</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4416310922.282996</v>
+        <v>4174732909.495476</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1079027634426937</v>
+        <v>0.1180399700907262</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05182097255395496</v>
+        <v>0.04612733696588894</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3738995019.078666</v>
+        <v>2655754468.197073</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1352418865961237</v>
+        <v>0.167716381284821</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03231301293703213</v>
+        <v>0.02564708751609474</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1000574959.84457</v>
+        <v>1377876371.18903</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1390212317419407</v>
+        <v>0.1719604051330871</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0239129521660834</v>
+        <v>0.01944728754014062</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2643409796.432226</v>
+        <v>2636577003.742862</v>
       </c>
       <c r="F20" t="n">
-        <v>0.135966535469536</v>
+        <v>0.1445013222655059</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02429183443202632</v>
+        <v>0.02025511218503928</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2589988157.816152</v>
+        <v>2354556273.33444</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09802001903983357</v>
+        <v>0.0762290985786426</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03662064113688954</v>
+        <v>0.03950401043500504</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2691335010.760393</v>
+        <v>3095547414.139546</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1147174561181606</v>
+        <v>0.1202386979543593</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04659602566880427</v>
+        <v>0.04625873614324203</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>959290630.7550186</v>
+        <v>1368603064.587621</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1148792014525491</v>
+        <v>0.1363309696281352</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04019003398650958</v>
+        <v>0.03358402799586584</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2802620780.565958</v>
+        <v>3720175852.930028</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1101121657779226</v>
+        <v>0.1190549619813331</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02482452441765468</v>
+        <v>0.02790201992738522</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1298886689.218485</v>
+        <v>1274171376.53821</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07508344759087571</v>
+        <v>0.07676788269404713</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02589173107401094</v>
+        <v>0.02870054435017203</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>997790564.4567822</v>
+        <v>922540637.4562937</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09663885705815448</v>
+        <v>0.09600294357763975</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02650049221773887</v>
+        <v>0.02790423445572536</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4526679700.168005</v>
+        <v>3144949682.27711</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1116458157212441</v>
+        <v>0.1241254615090802</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02042395215164605</v>
+        <v>0.02107854023713399</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3243655483.074595</v>
+        <v>2930366084.58691</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1335985267050011</v>
+        <v>0.1206649943475582</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03827498924556282</v>
+        <v>0.03146364235724809</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5605822540.415437</v>
+        <v>4085459118.821018</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09854149941856555</v>
+        <v>0.130144543968528</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03790553716844253</v>
+        <v>0.0395373242576943</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2246670707.074206</v>
+        <v>1487548081.510955</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1184442593888349</v>
+        <v>0.1209043060230152</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03951429367639383</v>
+        <v>0.03334338711919855</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1344793848.841959</v>
+        <v>1386696753.299279</v>
       </c>
       <c r="F31" t="n">
-        <v>0.10247633213032</v>
+        <v>0.08556740560475599</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03239179550851008</v>
+        <v>0.0504938322888534</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1255915621.022887</v>
+        <v>1644111291.596145</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1088445020918256</v>
+        <v>0.08840423775799637</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03375008208762681</v>
+        <v>0.03562198497160662</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2793789334.473369</v>
+        <v>2928600891.77507</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1566159551684082</v>
+        <v>0.1921343023437465</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0434034412098759</v>
+        <v>0.05553986806173979</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>952422446.6516497</v>
+        <v>1149563066.209365</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07525696941898115</v>
+        <v>0.07758799146281552</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01981376957060365</v>
+        <v>0.02647044834120181</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1021427588.273741</v>
+        <v>1353809951.80128</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08613961402796286</v>
+        <v>0.1009757090665545</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04429607490061772</v>
+        <v>0.03186268939083653</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2448326764.881544</v>
+        <v>2356335615.16151</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1747727906157159</v>
+        <v>0.1323653334525706</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01901568820485302</v>
+        <v>0.01899129349939524</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2338582038.888113</v>
+        <v>2245302439.63677</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1059327881124799</v>
+        <v>0.07999458975011721</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04071382401236638</v>
+        <v>0.0377081320657506</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2126945755.594734</v>
+        <v>1621692055.040789</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07822659652284483</v>
+        <v>0.08382891101910249</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02638164889390199</v>
+        <v>0.02690778623835721</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1443606824.311511</v>
+        <v>1913253104.772804</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1630348415401029</v>
+        <v>0.1835029329834754</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02954112186251619</v>
+        <v>0.0275219221932654</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1322708863.870671</v>
+        <v>1751716088.330525</v>
       </c>
       <c r="F40" t="n">
-        <v>0.117361155392002</v>
+        <v>0.1495918931682985</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05930394237458732</v>
+        <v>0.05358138940684409</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2559342342.266441</v>
+        <v>2263526661.719779</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1563915806154191</v>
+        <v>0.1561820917968182</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03900456232909179</v>
+        <v>0.04012994664558809</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3132242547.095731</v>
+        <v>3278717769.334469</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1236292029017234</v>
+        <v>0.1016045250418512</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03061656518193254</v>
+        <v>0.04572167103186821</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2372599965.296969</v>
+        <v>2505241286.191953</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1562685147122432</v>
+        <v>0.1947608951140088</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01674947044986706</v>
+        <v>0.01813009864366585</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2174614573.280821</v>
+        <v>2063051732.824033</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06465510370240463</v>
+        <v>0.06662188706374923</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03223849500103985</v>
+        <v>0.02603830919740758</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2282488725.346757</v>
+        <v>1859313065.717732</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1703650172748146</v>
+        <v>0.1336682241915246</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04572660552341579</v>
+        <v>0.05269944498366588</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4472837462.974014</v>
+        <v>4337777010.910046</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1748486730109112</v>
+        <v>0.1531697167781804</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06026492088161183</v>
+        <v>0.04199984279684706</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4463456820.307385</v>
+        <v>5082752813.611157</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1584183773484129</v>
+        <v>0.1922812402795585</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03730585336509797</v>
+        <v>0.05637220322568427</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3858377406.099701</v>
+        <v>4198925620.549703</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09799256288842838</v>
+        <v>0.0668844757087167</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03160779898202257</v>
+        <v>0.03652135948273801</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1554368094.815188</v>
+        <v>1371152374.08845</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1916751825693013</v>
+        <v>0.1718401827318723</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03017671783630436</v>
+        <v>0.03049996735990342</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4029083258.42034</v>
+        <v>2841772437.334888</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1601273915513462</v>
+        <v>0.1712079959245767</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03468926780224861</v>
+        <v>0.04500834142071606</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>965128577.3396486</v>
+        <v>975360849.2100273</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1342803767542035</v>
+        <v>0.1601365677094959</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04950026818007704</v>
+        <v>0.03376148369887359</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3195675098.261944</v>
+        <v>4078444348.788867</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1159231791281569</v>
+        <v>0.1233084601003535</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05048952904193708</v>
+        <v>0.06209067375585714</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3022265118.102422</v>
+        <v>2706637601.829914</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1950782691468329</v>
+        <v>0.1711073655247254</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03070458588999941</v>
+        <v>0.02954659982114031</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3910539936.151752</v>
+        <v>3921500621.352978</v>
       </c>
       <c r="F54" t="n">
-        <v>0.133411974938394</v>
+        <v>0.1240582096707863</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05244385816397283</v>
+        <v>0.03845762302434489</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3006919032.163357</v>
+        <v>3333507935.692832</v>
       </c>
       <c r="F55" t="n">
-        <v>0.201745549756792</v>
+        <v>0.1448256816362528</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03219938232541492</v>
+        <v>0.03206156740120345</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1535217865.251997</v>
+        <v>1614414904.348587</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1185548808142401</v>
+        <v>0.1108665478899751</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05356356523129156</v>
+        <v>0.0566438689303013</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3112470306.945561</v>
+        <v>4421008264.266803</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1406778440276641</v>
+        <v>0.1454541621359618</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01843344788828746</v>
+        <v>0.02341670770052436</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1722219082.233495</v>
+        <v>1880661051.985076</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1466483859559819</v>
+        <v>0.1237355504356226</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02467881236044791</v>
+        <v>0.02490767634435743</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3751287459.178321</v>
+        <v>4520865190.880462</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1004777674214859</v>
+        <v>0.1213367228064381</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04175874416178441</v>
+        <v>0.04286683266524643</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2650532586.203817</v>
+        <v>3648623606.60525</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2009704132726537</v>
+        <v>0.1711655664178705</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02085896898302741</v>
+        <v>0.02459822827689816</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2754442949.321368</v>
+        <v>2810744404.521284</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1523608075752301</v>
+        <v>0.16581616031057</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02268986253735134</v>
+        <v>0.02690460516974569</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1594493612.227447</v>
+        <v>2116037734.679081</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1303959049194625</v>
+        <v>0.1823144428987053</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03493766654699958</v>
+        <v>0.03994466194897987</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3978216567.780621</v>
+        <v>3972973454.55585</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09507777498418479</v>
+        <v>0.07407519469328593</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04142144783003071</v>
+        <v>0.03027021269058581</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3605593620.456067</v>
+        <v>4009683798.494287</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1253503396731438</v>
+        <v>0.1409278574576628</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03345673164942038</v>
+        <v>0.0225259331788794</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5891718823.691304</v>
+        <v>5865232156.09119</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1525562064729664</v>
+        <v>0.1129317800940355</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02966822917391582</v>
+        <v>0.03167049981750761</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5536634820.976357</v>
+        <v>3978444208.823627</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1517729991104506</v>
+        <v>0.119172439213145</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04430035656878494</v>
+        <v>0.03517544401263609</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2838714692.947077</v>
+        <v>3447691945.274367</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0831782548732614</v>
+        <v>0.07965758199848556</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05029584598143529</v>
+        <v>0.0325739071619383</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3948755526.75664</v>
+        <v>5389075090.595289</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1340755056278112</v>
+        <v>0.1339882504853991</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04821800936057493</v>
+        <v>0.04984617241750507</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2129456233.473716</v>
+        <v>2134634100.466787</v>
       </c>
       <c r="F69" t="n">
-        <v>0.171791834949426</v>
+        <v>0.1524543995008681</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05032135455732918</v>
+        <v>0.05264664743725549</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2311068354.847489</v>
+        <v>2441212884.195171</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09472602687820109</v>
+        <v>0.0985449251318922</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04251492957607087</v>
+        <v>0.04113208754985099</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4778256316.858907</v>
+        <v>4304732804.094449</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1198440156552931</v>
+        <v>0.1483238702480139</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02574352838180125</v>
+        <v>0.03125692172747036</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1965017248.910377</v>
+        <v>2056847125.431078</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08076147734175244</v>
+        <v>0.1081300928952852</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03564928967821843</v>
+        <v>0.03973761974148765</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2558947728.428545</v>
+        <v>2832807815.425086</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08334140740179542</v>
+        <v>0.09173742015458489</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04200119654122264</v>
+        <v>0.03449976499952601</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3299071533.698358</v>
+        <v>3301521861.276133</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1682875092723336</v>
+        <v>0.1658843003871084</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02581469404764127</v>
+        <v>0.02382454164010283</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2473571193.829055</v>
+        <v>1672685833.687854</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1327636341663052</v>
+        <v>0.1248038550242401</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02418358831080481</v>
+        <v>0.0279370695889913</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5302113362.494047</v>
+        <v>3731002484.326903</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1023965549436596</v>
+        <v>0.08934058629326229</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02552515667176144</v>
+        <v>0.02820291027944819</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1866257047.164123</v>
+        <v>2273600249.194467</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1761074492000764</v>
+        <v>0.1808397820897749</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02469703625123118</v>
+        <v>0.02379642779072567</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3558916327.956697</v>
+        <v>4605285822.617643</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1074715722780517</v>
+        <v>0.109493582436063</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03450274620093332</v>
+        <v>0.03735407424355189</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1459998150.112519</v>
+        <v>1302971955.76172</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1727200150478049</v>
+        <v>0.1212550609706257</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0298696991963458</v>
+        <v>0.02770632575611763</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5205582604.343461</v>
+        <v>5178270178.844893</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1004656757163783</v>
+        <v>0.1109929144363129</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03115103401865818</v>
+        <v>0.02511157495873581</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4872090056.755557</v>
+        <v>3380844173.320981</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1198018699799455</v>
+        <v>0.1030052630990506</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02085294880806966</v>
+        <v>0.02855896498711044</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4142001533.324</v>
+        <v>4579863582.974332</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1907277810812488</v>
+        <v>0.1475709351389179</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02704932037563058</v>
+        <v>0.02010391050992559</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2137374773.162281</v>
+        <v>2484117753.507213</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1475301577547078</v>
+        <v>0.1448480509987314</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04478613959701631</v>
+        <v>0.03932137639592925</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1793758872.578198</v>
+        <v>1926417078.135793</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09226210670488756</v>
+        <v>0.1197463743200526</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03968219913745356</v>
+        <v>0.04573806455401294</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3475253562.549131</v>
+        <v>2571868231.534015</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1544254314355225</v>
+        <v>0.1492292869632032</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05080825166633354</v>
+        <v>0.03954114412210432</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1936577635.89155</v>
+        <v>2282268228.035203</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1227498881464333</v>
+        <v>0.132077557118368</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02256075189823051</v>
+        <v>0.01677806777026891</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1348096717.261369</v>
+        <v>1370167312.044878</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1163497011833766</v>
+        <v>0.1431050845993802</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03285703249815987</v>
+        <v>0.03036589789144534</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3098125293.139245</v>
+        <v>2780403786.828576</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1372116950129231</v>
+        <v>0.1422038840715407</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03769811223886725</v>
+        <v>0.03770697027515522</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3145782378.766085</v>
+        <v>3102701397.471353</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1352757522731849</v>
+        <v>0.1312505623461113</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02551260593738409</v>
+        <v>0.04074055265831239</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1425662977.150751</v>
+        <v>1577609878.891065</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1137187241182343</v>
+        <v>0.0875792673385548</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04976606337370972</v>
+        <v>0.05157179841277907</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1757545297.402623</v>
+        <v>1280522975.736536</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1770078852691219</v>
+        <v>0.1860717777687532</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0391597763381883</v>
+        <v>0.04062165081865138</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2855566279.479748</v>
+        <v>2667197896.572826</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1074594776475309</v>
+        <v>0.07927181091620737</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0360584405927413</v>
+        <v>0.03640105577821672</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3907707059.457672</v>
+        <v>4641046690.778977</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1362647247712606</v>
+        <v>0.1189443921887501</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05316739797783967</v>
+        <v>0.03680085868668763</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2356129090.645143</v>
+        <v>2424593578.746557</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1590533304842913</v>
+        <v>0.1109410885238045</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02991231813274237</v>
+        <v>0.0356976797092435</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2363497538.790543</v>
+        <v>2700895209.755262</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09280907519300176</v>
+        <v>0.1215589289465915</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03851861871811049</v>
+        <v>0.03552965405278912</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1856929668.52988</v>
+        <v>2043946073.754328</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1093590495470853</v>
+        <v>0.08824999059672943</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04339524101339588</v>
+        <v>0.03360925510574021</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4514596735.702298</v>
+        <v>5357244639.603168</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1189468491445041</v>
+        <v>0.1749209403667738</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02547936375164503</v>
+        <v>0.02919113033607753</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3209515319.27516</v>
+        <v>2850575810.697266</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1101522162235084</v>
+        <v>0.1226222289731817</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02352596104266417</v>
+        <v>0.03236872113655764</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2102335369.147254</v>
+        <v>2806360849.146842</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1301634379251376</v>
+        <v>0.1162731199561221</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02802857874683816</v>
+        <v>0.02959987219794603</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4774351686.820381</v>
+        <v>4534358720.705096</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1434467163101316</v>
+        <v>0.179176206188656</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02276603240678085</v>
+        <v>0.01796299149374114</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2670987833.703914</v>
+        <v>3548102847.920886</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1660741981460404</v>
+        <v>0.1378772332482742</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03936539496408802</v>
+        <v>0.04833797863706604</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_110.xlsx
+++ b/output/fit_clients/fit_round_110.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2056424659.932771</v>
+        <v>1883852140.240883</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08771887225226083</v>
+        <v>0.09523563815158431</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03347540748445665</v>
+        <v>0.03105755249209313</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2611690565.715046</v>
+        <v>1722328515.013455</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1308804130729423</v>
+        <v>0.1438682439118791</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0497528516766849</v>
+        <v>0.03720849801010701</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3615699117.84389</v>
+        <v>4383652857.09541</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1353015228284888</v>
+        <v>0.1110863242169901</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03325221748870718</v>
+        <v>0.02614804285455069</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>67</v>
+      </c>
+      <c r="J4" t="n">
+        <v>110</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3411688341.946126</v>
+        <v>3553964382.174378</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0854068601373292</v>
+        <v>0.08789671938568064</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04247465150246427</v>
+        <v>0.03640592204637947</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>109</v>
+      </c>
+      <c r="K5" t="n">
+        <v>126.3881219059086</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2189334405.302006</v>
+        <v>1877267946.118644</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1474057968798251</v>
+        <v>0.1410140075030906</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05603080021771761</v>
+        <v>0.03425441471889949</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2697363577.373147</v>
+        <v>2012604865.583116</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08059087011729277</v>
+        <v>0.06467626773784269</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03599628171692643</v>
+        <v>0.03778259989215165</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3111302123.878457</v>
+        <v>3748495646.990307</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1873382576906919</v>
+        <v>0.1417114319494615</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02169217323237708</v>
+        <v>0.03340723307848826</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1878156244.095166</v>
+        <v>1753369005.379551</v>
       </c>
       <c r="F9" t="n">
-        <v>0.18475553979398</v>
+        <v>0.1475191215817392</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03674343135519018</v>
+        <v>0.02530655904520851</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3616534061.410649</v>
+        <v>5170583181.279337</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1870740256457559</v>
+        <v>0.1450898015381525</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05276359430263374</v>
+        <v>0.05081160727989152</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>101</v>
+      </c>
+      <c r="J10" t="n">
+        <v>110</v>
+      </c>
+      <c r="K10" t="n">
+        <v>171.6965429210757</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +820,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3021108743.086771</v>
+        <v>3127752352.726005</v>
       </c>
       <c r="F11" t="n">
-        <v>0.137171514685962</v>
+        <v>0.1759822460200178</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03874508765940018</v>
+        <v>0.0318616429916083</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>46</v>
+      </c>
+      <c r="J11" t="n">
+        <v>107</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2112506029.648694</v>
+        <v>3244167573.867156</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1542957478437976</v>
+        <v>0.1379951939213344</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03738722411948624</v>
+        <v>0.05317315291815975</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5077619972.553346</v>
+        <v>3732070338.722685</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07846649410059853</v>
+        <v>0.07581492668045894</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02305427170487753</v>
+        <v>0.02551220242980599</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>55</v>
+      </c>
+      <c r="J13" t="n">
+        <v>109</v>
+      </c>
+      <c r="K13" t="n">
+        <v>121.100436691274</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3421945065.260252</v>
+        <v>2430672837.47722</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1677749880683498</v>
+        <v>0.1404184866060821</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04307743467606748</v>
+        <v>0.0402590447720558</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>104</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1261779772.276219</v>
+        <v>1293615389.66918</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1039699262775489</v>
+        <v>0.09834587584122659</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03572031400268298</v>
+        <v>0.0486825168871436</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2859039096.595564</v>
+        <v>2276938025.596717</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0805809832817848</v>
+        <v>0.1094895892995647</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05177755061048198</v>
+        <v>0.04725203794507866</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4174732909.495476</v>
+        <v>4156103939.3961</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1180399700907262</v>
+        <v>0.1568522676087173</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04612733696588894</v>
+        <v>0.04892257327725883</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>53</v>
+      </c>
+      <c r="J17" t="n">
+        <v>109</v>
+      </c>
+      <c r="K17" t="n">
+        <v>138.5679842161286</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2655754468.197073</v>
+        <v>2579855066.229544</v>
       </c>
       <c r="F18" t="n">
-        <v>0.167716381284821</v>
+        <v>0.1690827347082862</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02564708751609474</v>
+        <v>0.02124876498889256</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>28</v>
+      </c>
+      <c r="J18" t="n">
+        <v>105</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1377876371.18903</v>
+        <v>1276748583.437481</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1719604051330871</v>
+        <v>0.147454693565451</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01944728754014062</v>
+        <v>0.02079733303388592</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2636577003.742862</v>
+        <v>2347794402.281632</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1445013222655059</v>
+        <v>0.1251517509741518</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02025511218503928</v>
+        <v>0.02580830156263285</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2354556273.33444</v>
+        <v>2386988606.698777</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0762290985786426</v>
+        <v>0.08026173396849536</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03950401043500504</v>
+        <v>0.04602693499388519</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3095547414.139546</v>
+        <v>2939644082.615744</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1202386979543593</v>
+        <v>0.1412642364912468</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04625873614324203</v>
+        <v>0.03762922429762298</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="n">
+        <v>107</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1368603064.587621</v>
+        <v>949622800.3585979</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1363309696281352</v>
+        <v>0.1325668257393237</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03358402799586584</v>
+        <v>0.03956478757455405</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3720175852.930028</v>
+        <v>3106630055.040051</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1190549619813331</v>
+        <v>0.09372677062478496</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02790201992738522</v>
+        <v>0.03250696665158476</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>33</v>
+      </c>
+      <c r="J24" t="n">
+        <v>108</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1274171376.53821</v>
+        <v>1228813952.465002</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07676788269404713</v>
+        <v>0.1038878136488529</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02870054435017203</v>
+        <v>0.02615482859730742</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>922540637.4562937</v>
+        <v>1451566381.858623</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09600294357763975</v>
+        <v>0.09997085168069793</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02790423445572536</v>
+        <v>0.03700843558611861</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3144949682.27711</v>
+        <v>3582648406.396632</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1241254615090802</v>
+        <v>0.1231718810437109</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02107854023713399</v>
+        <v>0.02338023914227387</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>43</v>
+      </c>
+      <c r="J27" t="n">
+        <v>110</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2930366084.58691</v>
+        <v>2616996703.140871</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1206649943475582</v>
+        <v>0.1391941361002432</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03146364235724809</v>
+        <v>0.03027222912565634</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>24</v>
+      </c>
+      <c r="J28" t="n">
+        <v>109</v>
+      </c>
+      <c r="K28" t="n">
+        <v>61.32043884700292</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4085459118.821018</v>
+        <v>3616262353.078602</v>
       </c>
       <c r="F29" t="n">
-        <v>0.130144543968528</v>
+        <v>0.09368063231468952</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0395373242576943</v>
+        <v>0.03151285057931217</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>103</v>
+      </c>
+      <c r="J29" t="n">
+        <v>109</v>
+      </c>
+      <c r="K29" t="n">
+        <v>138.9588994970705</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1487548081.510955</v>
+        <v>1763311301.83494</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1209043060230152</v>
+        <v>0.112037317762203</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03334338711919855</v>
+        <v>0.03053391497364524</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1386696753.299279</v>
+        <v>1054176862.956764</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08556740560475599</v>
+        <v>0.1074841268920847</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0504938322888534</v>
+        <v>0.05028918884129102</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1644111291.596145</v>
+        <v>1674474577.297707</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08840423775799637</v>
+        <v>0.08102527518695456</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03562198497160662</v>
+        <v>0.03583132634782581</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2928600891.77507</v>
+        <v>2373515750.061669</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1921343023437465</v>
+        <v>0.183377787219989</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05553986806173979</v>
+        <v>0.05559046327922836</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1149563066.209365</v>
+        <v>1237870659.846027</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07758799146281552</v>
+        <v>0.112003026664677</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02647044834120181</v>
+        <v>0.02113082878582392</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1353809951.80128</v>
+        <v>1020117037.067573</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1009757090665545</v>
+        <v>0.1089563281514722</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03186268939083653</v>
+        <v>0.03537590293733786</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2356335615.16151</v>
+        <v>2341888238.40053</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1323653334525706</v>
+        <v>0.1153863290418689</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01899129349939524</v>
+        <v>0.02246973038151866</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2245302439.63677</v>
+        <v>1971230355.463413</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07999458975011721</v>
+        <v>0.1059899790254741</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0377081320657506</v>
+        <v>0.0346426520620982</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1621692055.040789</v>
+        <v>2137540321.442581</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08382891101910249</v>
+        <v>0.08859772021215678</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02690778623835721</v>
+        <v>0.0283888601638165</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1913253104.772804</v>
+        <v>1968948640.501711</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1835029329834754</v>
+        <v>0.165800944817741</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0275219221932654</v>
+        <v>0.0276972167251984</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1751716088.330525</v>
+        <v>1803426529.853465</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1495918931682985</v>
+        <v>0.124722445638163</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05358138940684409</v>
+        <v>0.04965602670619601</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2263526661.719779</v>
+        <v>2397545955.899617</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1561820917968182</v>
+        <v>0.1149090547059075</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04012994664558809</v>
+        <v>0.03452243330349375</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3278717769.334469</v>
+        <v>2743120118.283829</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1016045250418512</v>
+        <v>0.1093933836497806</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04572167103186821</v>
+        <v>0.04001141510112728</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>40</v>
+      </c>
+      <c r="J42" t="n">
+        <v>104</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2505241286.191953</v>
+        <v>2366455617.026639</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1947608951140088</v>
+        <v>0.1592140302271611</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01813009864366585</v>
+        <v>0.01709633302232488</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2063051732.824033</v>
+        <v>1479665899.956672</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06662188706374923</v>
+        <v>0.07408799650736375</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02603830919740758</v>
+        <v>0.02460155655448766</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1859313065.717732</v>
+        <v>2209531000.237227</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1336682241915246</v>
+        <v>0.1913368561568702</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05269944498366588</v>
+        <v>0.04583826426306171</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2053,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4337777010.910046</v>
+        <v>4875814721.760615</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1531697167781804</v>
+        <v>0.1635038149314902</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04199984279684706</v>
+        <v>0.03691736607515847</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>63</v>
+      </c>
+      <c r="J46" t="n">
+        <v>110</v>
+      </c>
+      <c r="K46" t="n">
+        <v>158.6885566436805</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5082752813.611157</v>
+        <v>3256240319.780676</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1922812402795585</v>
+        <v>0.1562095594038966</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05637220322568427</v>
+        <v>0.04491660552432412</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>48</v>
+      </c>
+      <c r="J47" t="n">
+        <v>110</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2125,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4198925620.549703</v>
+        <v>4611466469.47409</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0668844757087167</v>
+        <v>0.08287903112989438</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03652135948273801</v>
+        <v>0.03458592502908234</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>41</v>
+      </c>
+      <c r="J48" t="n">
+        <v>110</v>
+      </c>
+      <c r="K48" t="n">
+        <v>159.0590865985866</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1371152374.08845</v>
+        <v>1649786815.840312</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1718401827318723</v>
+        <v>0.1468246328539095</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03049996735990342</v>
+        <v>0.03198740445344507</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2841772437.334888</v>
+        <v>2569167687.118194</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1712079959245767</v>
+        <v>0.1607711674808736</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04500834142071606</v>
+        <v>0.04040563192596054</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>38</v>
+      </c>
+      <c r="J50" t="n">
+        <v>108</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>975360849.2100273</v>
+        <v>1009777694.219109</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1601365677094959</v>
+        <v>0.1961757430650415</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03376148369887359</v>
+        <v>0.04445953095017408</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2267,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4078444348.788867</v>
+        <v>4870047054.772951</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1233084601003535</v>
+        <v>0.1099722479365363</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06209067375585714</v>
+        <v>0.05213268918873792</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>84</v>
+      </c>
+      <c r="J52" t="n">
+        <v>110</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2706637601.829914</v>
+        <v>2600507589.753964</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1711073655247254</v>
+        <v>0.197918070370542</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02954659982114031</v>
+        <v>0.03305941835978364</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>12</v>
+      </c>
+      <c r="J53" t="n">
+        <v>108</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3921500621.352978</v>
+        <v>4308683345.120009</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1240582096707863</v>
+        <v>0.1200019855754575</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03845762302434489</v>
+        <v>0.03678379824438632</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>50</v>
+      </c>
+      <c r="J54" t="n">
+        <v>109</v>
+      </c>
+      <c r="K54" t="n">
+        <v>155.8104672481398</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2374,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3333507935.692832</v>
+        <v>3680612566.093807</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1448256816362528</v>
+        <v>0.2202988550109215</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03206156740120345</v>
+        <v>0.0246224351859537</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>50</v>
+      </c>
+      <c r="J55" t="n">
+        <v>110</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1614414904.348587</v>
+        <v>1625204055.878602</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1108665478899751</v>
+        <v>0.1581216904874624</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0566438689303013</v>
+        <v>0.04293570604463112</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4421008264.266803</v>
+        <v>3265259548.512198</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1454541621359618</v>
+        <v>0.1219801718858339</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02341670770052436</v>
+        <v>0.02172263924288468</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>42</v>
+      </c>
+      <c r="J57" t="n">
+        <v>110</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1880661051.985076</v>
+        <v>1575167896.416687</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1237355504356226</v>
+        <v>0.1553813917788546</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02490767634435743</v>
+        <v>0.03791712208194364</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2514,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4520865190.880462</v>
+        <v>4326452669.526649</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1213367228064381</v>
+        <v>0.1105910712142045</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04286683266524643</v>
+        <v>0.03601481081056761</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>53</v>
+      </c>
+      <c r="J59" t="n">
+        <v>110</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3648623606.60525</v>
+        <v>3282942331.406689</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1711655664178705</v>
+        <v>0.1265913730511556</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02459822827689816</v>
+        <v>0.02191532566366023</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>15</v>
+      </c>
+      <c r="J60" t="n">
+        <v>110</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2810744404.521284</v>
+        <v>3375203123.916325</v>
       </c>
       <c r="F61" t="n">
-        <v>0.16581616031057</v>
+        <v>0.1723542355920208</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02690460516974569</v>
+        <v>0.02393091818844964</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>110</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2116037734.679081</v>
+        <v>1517814064.952667</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1823144428987053</v>
+        <v>0.1293080687870033</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03994466194897987</v>
+        <v>0.0317137349860607</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2648,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3972973454.55585</v>
+        <v>4201688793.393201</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07407519469328593</v>
+        <v>0.09235022899567961</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03027021269058581</v>
+        <v>0.04647361362631943</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>54</v>
+      </c>
+      <c r="J63" t="n">
+        <v>110</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2689,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4009683798.494287</v>
+        <v>4730257074.005035</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1409278574576628</v>
+        <v>0.1219073854428511</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0225259331788794</v>
+        <v>0.03357579298904063</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>54</v>
+      </c>
+      <c r="J64" t="n">
+        <v>110</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2724,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5865232156.09119</v>
+        <v>5813759694.251757</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1129317800940355</v>
+        <v>0.1112159400048667</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03167049981750761</v>
+        <v>0.03197447594228124</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>90</v>
+      </c>
+      <c r="J65" t="n">
+        <v>110</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2759,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3978444208.823627</v>
+        <v>4717879761.221911</v>
       </c>
       <c r="F66" t="n">
-        <v>0.119172439213145</v>
+        <v>0.1416252764573563</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03517544401263609</v>
+        <v>0.04390648623850602</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>54</v>
+      </c>
+      <c r="J66" t="n">
+        <v>109</v>
+      </c>
+      <c r="K66" t="n">
+        <v>146.9281821395349</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2790,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3447691945.274367</v>
+        <v>3017727580.62986</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07965758199848556</v>
+        <v>0.08520597996340952</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0325739071619383</v>
+        <v>0.04173054558801477</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2825,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5389075090.595289</v>
+        <v>5662084907.083517</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1339882504853991</v>
+        <v>0.103482556849924</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04984617241750507</v>
+        <v>0.04682524662102928</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>55</v>
+      </c>
+      <c r="J68" t="n">
+        <v>109</v>
+      </c>
+      <c r="K68" t="n">
+        <v>146.9833301116659</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2134634100.466787</v>
+        <v>2472111478.541544</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1524543995008681</v>
+        <v>0.1505474457432761</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05264664743725549</v>
+        <v>0.03863810174087609</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2897,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2441212884.195171</v>
+        <v>2332736360.879811</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0985449251318922</v>
+        <v>0.06885227126611015</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04113208754985099</v>
+        <v>0.04230998554530737</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>13</v>
+      </c>
+      <c r="J70" t="n">
+        <v>105</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2932,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4304732804.094449</v>
+        <v>5120652232.071584</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1483238702480139</v>
+        <v>0.1753176983753337</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03125692172747036</v>
+        <v>0.0279348590439666</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>89</v>
+      </c>
+      <c r="J71" t="n">
+        <v>110</v>
+      </c>
+      <c r="K71" t="n">
+        <v>160.1438627113277</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2975,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2056847125.431078</v>
+        <v>1839314006.862594</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1081300928952852</v>
+        <v>0.07490803455758802</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03973761974148765</v>
+        <v>0.04106008046257779</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3004,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2832807815.425086</v>
+        <v>2708472278.014969</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09173742015458489</v>
+        <v>0.08596240386711491</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03449976499952601</v>
+        <v>0.04167670326044436</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>98</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3045,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3301521861.276133</v>
+        <v>3296135567.3594</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1658843003871084</v>
+        <v>0.1546314573855842</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02382454164010283</v>
+        <v>0.0331145005240854</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>38</v>
+      </c>
+      <c r="J74" t="n">
+        <v>109</v>
+      </c>
+      <c r="K74" t="n">
+        <v>97.4483289919425</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3082,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1672685833.687854</v>
+        <v>2495493701.223642</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1248038550242401</v>
+        <v>0.1251695142533719</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0279370695889913</v>
+        <v>0.02738296416370324</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3111,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3731002484.326903</v>
+        <v>4210369820.710526</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08934058629326229</v>
+        <v>0.09983356485832333</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02820291027944819</v>
+        <v>0.02981006750801185</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>51</v>
+      </c>
+      <c r="J76" t="n">
+        <v>109</v>
+      </c>
+      <c r="K76" t="n">
+        <v>128.0365093320218</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2273600249.194467</v>
+        <v>1694724058.108635</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1808397820897749</v>
+        <v>0.1861508423514905</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02379642779072567</v>
+        <v>0.02477748378497598</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4605285822.617643</v>
+        <v>4102653537.237036</v>
       </c>
       <c r="F78" t="n">
-        <v>0.109493582436063</v>
+        <v>0.09862100766301266</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03735407424355189</v>
+        <v>0.03836049790735565</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>55</v>
+      </c>
+      <c r="J78" t="n">
+        <v>109</v>
+      </c>
+      <c r="K78" t="n">
+        <v>158.3872744195147</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1302971955.76172</v>
+        <v>1226955367.543082</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1212550609706257</v>
+        <v>0.1307044383956175</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02770632575611763</v>
+        <v>0.02670621293578523</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5178270178.844893</v>
+        <v>3708861907.028447</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1109929144363129</v>
+        <v>0.1008828187763567</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02511157495873581</v>
+        <v>0.03494501484667362</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>53</v>
+      </c>
+      <c r="J80" t="n">
+        <v>109</v>
+      </c>
+      <c r="K80" t="n">
+        <v>93.4033866651035</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3380844173.320981</v>
+        <v>4632805177.543033</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1030052630990506</v>
+        <v>0.08988060474066885</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02855896498711044</v>
+        <v>0.03143019539774639</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>49</v>
+      </c>
+      <c r="J81" t="n">
+        <v>109</v>
+      </c>
+      <c r="K81" t="n">
+        <v>133.4716601317286</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4579863582.974332</v>
+        <v>5172617775.813272</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1475709351389179</v>
+        <v>0.1373879085362413</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02010391050992559</v>
+        <v>0.02684992758046302</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>74</v>
+      </c>
+      <c r="J82" t="n">
+        <v>110</v>
+      </c>
+      <c r="K82" t="n">
+        <v>165.7932504253785</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2484117753.507213</v>
+        <v>1630136267.359907</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1448480509987314</v>
+        <v>0.1141110156280805</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03932137639592925</v>
+        <v>0.03591387337271992</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1926417078.135793</v>
+        <v>2136426846.279157</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1197463743200526</v>
+        <v>0.1052858492000506</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04573806455401294</v>
+        <v>0.03582498229136387</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2571868231.534015</v>
+        <v>2586023428.498941</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1492292869632032</v>
+        <v>0.1191420980214936</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03954114412210432</v>
+        <v>0.05141621812289075</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2282268228.035203</v>
+        <v>2009273869.914373</v>
       </c>
       <c r="F86" t="n">
-        <v>0.132077557118368</v>
+        <v>0.1502961542589515</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01677806777026891</v>
+        <v>0.01889996730409463</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1370167312.044878</v>
+        <v>1147263463.403668</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1431050845993802</v>
+        <v>0.1824078305222531</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03036589789144534</v>
+        <v>0.04178521750680958</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2780403786.828576</v>
+        <v>2806844684.623361</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1422038840715407</v>
+        <v>0.1549864898667318</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03770697027515522</v>
+        <v>0.03911008087155303</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>106</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3102701397.471353</v>
+        <v>2393084645.754243</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1312505623461113</v>
+        <v>0.1344439641613603</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04074055265831239</v>
+        <v>0.02732400032012263</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>10</v>
+      </c>
+      <c r="J89" t="n">
+        <v>97</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1577609878.891065</v>
+        <v>1319600950.344441</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0875792673385548</v>
+        <v>0.085642560799548</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05157179841277907</v>
+        <v>0.0402266585938423</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1280522975.736536</v>
+        <v>1981953656.222652</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1860717777687532</v>
+        <v>0.1419560853962862</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04062165081865138</v>
+        <v>0.04311007362672342</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2667197896.572826</v>
+        <v>1909800714.289447</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07927181091620737</v>
+        <v>0.1072516021668517</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03640105577821672</v>
+        <v>0.03240762185662005</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4641046690.778977</v>
+        <v>4690825716.438479</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1189443921887501</v>
+        <v>0.115954429257396</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03680085868668763</v>
+        <v>0.04701620282188312</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>50</v>
+      </c>
+      <c r="J93" t="n">
+        <v>110</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2424593578.746557</v>
+        <v>2403829888.198385</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1109410885238045</v>
+        <v>0.1237624728033936</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0356976797092435</v>
+        <v>0.03809669452462551</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2700895209.755262</v>
+        <v>2680017593.84048</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1215589289465915</v>
+        <v>0.1305750761524154</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03552965405278912</v>
+        <v>0.04172395276359336</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2043946073.754328</v>
+        <v>2026316196.592134</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08824999059672943</v>
+        <v>0.09727634293102104</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03360925510574021</v>
+        <v>0.03344811283284097</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5357244639.603168</v>
+        <v>4012947058.118942</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1749209403667738</v>
+        <v>0.128033625228162</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02919113033607753</v>
+        <v>0.02004387687109579</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>53</v>
+      </c>
+      <c r="J97" t="n">
+        <v>109</v>
+      </c>
+      <c r="K97" t="n">
+        <v>143.366499420118</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2850575810.697266</v>
+        <v>3629642621.246932</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1226222289731817</v>
+        <v>0.1183110027302588</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03236872113655764</v>
+        <v>0.02292884251889108</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>25</v>
+      </c>
+      <c r="J98" t="n">
+        <v>110</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2806360849.146842</v>
+        <v>2862058153.697635</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1162731199561221</v>
+        <v>0.146491954418568</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02959987219794603</v>
+        <v>0.03195753932833056</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4534358720.705096</v>
+        <v>4024498754.727044</v>
       </c>
       <c r="F100" t="n">
-        <v>0.179176206188656</v>
+        <v>0.1175715601822901</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01796299149374114</v>
+        <v>0.02803660299557536</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>45</v>
+      </c>
+      <c r="J100" t="n">
+        <v>109</v>
+      </c>
+      <c r="K100" t="n">
+        <v>134.6407404277012</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3548102847.920886</v>
+        <v>2511319610.183467</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1378772332482742</v>
+        <v>0.2164330316996271</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04833797863706604</v>
+        <v>0.04039650904390824</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>6</v>
+      </c>
+      <c r="J101" t="n">
+        <v>103</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
